--- a/input/general/Population_projection_world.xlsx
+++ b/input/general/Population_projection_world.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DCF60-995A-4909-A3C3-7760975BEDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFCBB8-0E45-4991-AED3-C14B13EBB74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="255" windowWidth="21045" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Countries" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="390">
   <si>
     <t>2000</t>
   </si>
@@ -1135,9 +1135,6 @@
     <t xml:space="preserve">Source: </t>
   </si>
   <si>
-    <t>United Nations, see unpopulation_dataportal: total population by sex</t>
-  </si>
-  <si>
     <t>Unit:</t>
   </si>
   <si>
@@ -1194,6 +1191,24 @@
   <si>
     <t>Tanzania</t>
   </si>
+  <si>
+    <t>Population _Countries</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Population_NUTS2</t>
+  </si>
+  <si>
+    <t>Note: empty, used for  uniform impementation in the programm</t>
+  </si>
+  <si>
+    <t>United Nations</t>
+  </si>
+  <si>
+    <t>see unpopulation_dataportal: total population by sex</t>
+  </si>
 </sst>
 </file>
 
@@ -1229,7 +1244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,6 +1254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1256,7 +1277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1264,6 +1285,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1548,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1583,7 @@
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -10185,7 +10207,7 @@
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="3">
         <v>8592656</v>
@@ -17269,7 +17291,7 @@
     </row>
     <row r="52" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B52" s="3">
         <v>6731195</v>
@@ -17577,7 +17599,7 @@
     </row>
     <row r="53" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53" s="3">
         <v>431896</v>
@@ -17885,7 +17907,7 @@
     </row>
     <row r="54" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B54" s="3">
         <v>22194731</v>
@@ -21581,7 +21603,7 @@
     </row>
     <row r="66" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="3">
         <v>23367060</v>
@@ -37597,7 +37619,7 @@
     </row>
     <row r="118" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B118" s="3">
         <v>65544383</v>
@@ -42525,7 +42547,7 @@
     </row>
     <row r="134" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B134" s="3">
         <v>5430853</v>
@@ -64393,7 +64415,7 @@
     </row>
     <row r="205" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B205" s="3">
         <v>46788591</v>
@@ -64701,7 +64723,7 @@
     </row>
     <row r="206" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B206" s="3">
         <v>4251573</v>
@@ -75481,7 +75503,7 @@
     </row>
     <row r="241" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B241" s="3">
         <v>3139954</v>
@@ -77329,7 +77351,7 @@
     </row>
     <row r="247" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B247" s="3">
         <v>16307654</v>
@@ -81025,7 +81047,7 @@
     </row>
     <row r="259" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B259" s="3">
         <v>64113547</v>
@@ -82565,7 +82587,7 @@
     </row>
     <row r="264" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B264" s="3">
         <v>34463704</v>
@@ -84721,7 +84743,7 @@
     </row>
     <row r="271" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B271" s="3">
         <v>24427729</v>
@@ -85029,7 +85051,7 @@
     </row>
     <row r="272" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B272" s="3">
         <v>79001142</v>
@@ -88129,38 +88151,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F0A87B-BB04-413C-960F-E9EC594A72BF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>364</v>
       </c>
-      <c r="B1" t="s">
-        <v>365</v>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>368</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" t="s">
-        <v>367</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{791FD6D0-0CD9-436E-954B-5896AAA11054}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{791FD6D0-0CD9-436E-954B-5896AAA11054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/general/Population_projection_world.xlsx
+++ b/input/general/Population_projection_world.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFCBB8-0E45-4991-AED3-C14B13EBB74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276E158-40DE-4603-B1AE-CCEF41FEABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="255" windowWidth="21045" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32370" yWindow="1410" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Countries" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="391">
   <si>
     <t>2000</t>
   </si>
@@ -1209,6 +1209,9 @@
   <si>
     <t>see unpopulation_dataportal: total population by sex</t>
   </si>
+  <si>
+    <t>Suggested citation: United Nations, Department of Economic and Social Affairs, Population Division (2022). Data Portal, custom data acquired via website. United Nations: New York. Available from https://population.un.org/DataPortal/ (accessed 01 September 2022).</t>
+  </si>
 </sst>
 </file>
 
@@ -1570,8 +1573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX281"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88153,8 +88159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F0A87B-BB04-413C-960F-E9EC594A72BF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88196,6 +88202,11 @@
         <v>367</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>390</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>386</v>
